--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Work/MyProject/Coin/data_temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Work/MyProject/Coin/TeleScript/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D5F278-EC2A-5C4F-AFFD-C1998D68066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F7685-B6F1-DD4D-8C6C-392CBD2D84CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="3480" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>query_id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>user=%7B%22id%</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,20 +897,26 @@
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>12313</v>
       </c>
     </row>
   </sheetData>
